--- a/Writesheet.xlsx
+++ b/Writesheet.xlsx
@@ -23,43 +23,43 @@
     <t>DESIGNATION</t>
   </si>
   <si>
-    <t>tp01</t>
+    <t>QT01</t>
   </si>
   <si>
-    <t>Gopal</t>
+    <t>Hello</t>
   </si>
   <si>
     <t>Technical Manager</t>
   </si>
   <si>
-    <t>tp02</t>
+    <t>QT02</t>
   </si>
   <si>
-    <t>Manisha</t>
+    <t>HI</t>
   </si>
   <si>
     <t>Proof Reader</t>
   </si>
   <si>
-    <t>tp03</t>
+    <t>QT03</t>
   </si>
   <si>
-    <t>Masthan</t>
+    <t>Hey</t>
   </si>
   <si>
     <t>Technical Writer</t>
   </si>
   <si>
-    <t>tp04</t>
+    <t>QT04</t>
   </si>
   <si>
-    <t>Satish</t>
+    <t>None</t>
   </si>
   <si>
-    <t>tp05</t>
+    <t>QT05</t>
   </si>
   <si>
-    <t>Krishna</t>
+    <t>Done</t>
   </si>
 </sst>
 </file>

--- a/Writesheet.xlsx
+++ b/Writesheet.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>First Name</t>
   </si>
@@ -813,9 +813,6 @@
       <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -841,9 +838,6 @@
       </c>
       <c r="H4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
